--- a/董子刚的股海浮沉记.xlsx
+++ b/董子刚的股海浮沉记.xlsx
@@ -109,7 +109,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>￥349.85</t>
+    <t>￥1194.72</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -463,7 +463,7 @@
   <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -542,7 +542,7 @@
         <v>12366.39</v>
       </c>
       <c r="G2" s="3">
-        <v>932.19</v>
+        <v>959.12</v>
       </c>
       <c r="H2" s="3">
         <v>0</v>

--- a/董子刚的股海浮沉记.xlsx
+++ b/董子刚的股海浮沉记.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -81,22 +81,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>当前收益</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>曹老师让清仓的</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>当前持仓金额</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>操作后持仓金额</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>华夏恒生互联网行业etf</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -109,7 +97,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>￥1194.72</t>
+    <t>招商银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>减仓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回本减一半</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纳指etf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清仓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>昨晚纳指明显趋势反转放量下跌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上证指数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -118,7 +130,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="7" formatCode="&quot;¥&quot;#,##0.00;&quot;¥&quot;\-#,##0.00"/>
+    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -165,21 +177,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -460,119 +474,133 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.25" customWidth="1"/>
-    <col min="3" max="3" width="20.375" customWidth="1"/>
-    <col min="5" max="5" width="27.125" customWidth="1"/>
-    <col min="6" max="7" width="12.25" customWidth="1"/>
-    <col min="8" max="8" width="14.5" customWidth="1"/>
+    <col min="1" max="2" width="15.25" customWidth="1"/>
+    <col min="4" max="4" width="20.375" customWidth="1"/>
+    <col min="6" max="6" width="27.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
+        <v>44739</v>
+      </c>
+      <c r="B2" s="6">
+        <v>3379.19</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C3">
+        <v>13172</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
         <v>17</v>
       </c>
-      <c r="G1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="F3" t="s">
         <v>18</v>
       </c>
-      <c r="I1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" t="s">
-        <v>9</v>
-      </c>
-      <c r="N1" t="s">
-        <v>10</v>
-      </c>
-      <c r="O1" t="s">
-        <v>11</v>
-      </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>44739</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="3">
-        <v>12366.39</v>
-      </c>
-      <c r="G2" s="3">
-        <v>959.12</v>
-      </c>
-      <c r="H2" s="3">
-        <v>0</v>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>44741</v>
+      </c>
+      <c r="B4" s="7">
+        <v>3361.52</v>
+      </c>
+      <c r="C4">
+        <v>600036</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B3">
-        <v>13172</v>
-      </c>
-      <c r="C3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3">
-        <v>23278.78</v>
-      </c>
-      <c r="G3" s="4" t="s">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C5">
+        <v>159941</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
+      </c>
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
-      <formula1>$D$2:$D$4</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2">
+      <formula1>$E$2:$E$4</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/董子刚的股海浮沉记.xlsx
+++ b/董子刚的股海浮沉记.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -122,6 +122,30 @@
   </si>
   <si>
     <t>上证指数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>013172</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>006487</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广发中证1000指数C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>易方达科创50联接C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>011609</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲高失败大盘尾盘跳水疑似出货</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -130,7 +154,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -177,7 +201,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -190,10 +214,13 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -474,17 +501,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:M36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F6" sqref="F6:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="15.25" customWidth="1"/>
     <col min="4" max="4" width="20.375" customWidth="1"/>
-    <col min="6" max="6" width="27.125" customWidth="1"/>
+    <col min="6" max="6" width="33.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
@@ -549,8 +576,8 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C3">
-        <v>13172</v>
+      <c r="C3" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>16</v>
@@ -596,7 +623,138 @@
         <v>24</v>
       </c>
     </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>44742</v>
+      </c>
+      <c r="B6">
+        <v>3398.62</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="8"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="8"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C10" s="2"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C15" s="2"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C16" s="2"/>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C17" s="2"/>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C18" s="2"/>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C20" s="2"/>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C21" s="2"/>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C22" s="2"/>
+    </row>
+    <row r="23" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C23" s="2"/>
+    </row>
+    <row r="24" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C24" s="2"/>
+    </row>
+    <row r="25" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C25" s="2"/>
+    </row>
+    <row r="26" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C26" s="2"/>
+    </row>
+    <row r="27" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C27" s="2"/>
+    </row>
+    <row r="28" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C28" s="2"/>
+    </row>
+    <row r="29" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C29" s="2"/>
+    </row>
+    <row r="30" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C30" s="2"/>
+    </row>
+    <row r="31" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C31" s="2"/>
+    </row>
+    <row r="32" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C32" s="2"/>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C33" s="2"/>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C34" s="2"/>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C35" s="2"/>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C36" s="2"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F6:F8"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2">

--- a/董子刚的股海浮沉记.xlsx
+++ b/董子刚的股海浮沉记.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="40">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -146,6 +146,38 @@
   </si>
   <si>
     <t>冲高失败大盘尾盘跳水疑似出货</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加仓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华兰生物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前在右侧，医药低估，看好后市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>001092</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广发纳斯达克生物科技(QDII)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建仓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟车</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -504,13 +536,13 @@
   <dimension ref="A1:M36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6:F8"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="15.25" customWidth="1"/>
-    <col min="4" max="4" width="20.375" customWidth="1"/>
+    <col min="4" max="4" width="29.25" customWidth="1"/>
     <col min="6" max="6" width="33.25" customWidth="1"/>
   </cols>
   <sheetData>
@@ -668,10 +700,38 @@
       <c r="F8" s="8"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C9" s="2"/>
+      <c r="A9" s="3">
+        <v>44743</v>
+      </c>
+      <c r="B9">
+        <v>3387.64</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C10" s="2"/>
+      <c r="C10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="2"/>
